--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220524_110301.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220524_110301.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
   <si>
     <t>사이트</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>MBC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>해외</t>
@@ -1769,7 +1766,7 @@
         <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
         <v>234</v>
@@ -2055,7 +2052,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
         <v>234</v>
@@ -2081,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H36" t="s">
         <v>234</v>
@@ -2107,7 +2104,7 @@
         <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
         <v>234</v>
@@ -2159,7 +2156,7 @@
         <v>182</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H39" t="s">
         <v>234</v>
@@ -2185,7 +2182,7 @@
         <v>183</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
         <v>234</v>
@@ -2211,7 +2208,7 @@
         <v>184</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H41" t="s">
         <v>234</v>
@@ -2263,7 +2260,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
         <v>234</v>
@@ -2289,7 +2286,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
         <v>234</v>
@@ -2315,7 +2312,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
         <v>234</v>
@@ -2341,7 +2338,7 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
         <v>234</v>
@@ -2367,7 +2364,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
         <v>234</v>
@@ -2419,7 +2416,7 @@
         <v>186</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
         <v>234</v>
@@ -2445,7 +2442,7 @@
         <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
         <v>234</v>
@@ -2471,7 +2468,7 @@
         <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H51" t="s">
         <v>234</v>
@@ -2497,7 +2494,7 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
         <v>234</v>
@@ -2575,7 +2572,7 @@
         <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" t="s">
         <v>234</v>
@@ -2601,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H56" t="s">
         <v>234</v>
@@ -2653,10 +2650,10 @@
         <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2705,7 +2702,7 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H60" t="s">
         <v>234</v>
@@ -2757,7 +2754,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H62" t="s">
         <v>234</v>
@@ -2783,7 +2780,7 @@
         <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H63" t="s">
         <v>234</v>
@@ -2809,10 +2806,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H66" t="s">
         <v>234</v>
@@ -2887,7 +2884,7 @@
         <v>185</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
         <v>234</v>
@@ -2913,7 +2910,7 @@
         <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H68" t="s">
         <v>234</v>
@@ -2965,7 +2962,7 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H70" t="s">
         <v>234</v>
@@ -3017,7 +3014,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H72" t="s">
         <v>234</v>
@@ -3043,7 +3040,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
         <v>234</v>
@@ -3069,7 +3066,7 @@
         <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
         <v>234</v>
@@ -3095,7 +3092,7 @@
         <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H75" t="s">
         <v>234</v>
@@ -3147,7 +3144,7 @@
         <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
         <v>234</v>
@@ -3173,7 +3170,7 @@
         <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H78" t="s">
         <v>234</v>
@@ -3225,7 +3222,7 @@
         <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
         <v>234</v>
@@ -3277,7 +3274,7 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H82" t="s">
         <v>234</v>
@@ -3303,7 +3300,7 @@
         <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
         <v>234</v>
@@ -3329,7 +3326,7 @@
         <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H84" t="s">
         <v>234</v>
@@ -3381,10 +3378,10 @@
         <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3407,7 +3404,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H87" t="s">
         <v>234</v>
@@ -3433,7 +3430,7 @@
         <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
         <v>234</v>
@@ -3511,7 +3508,7 @@
         <v>185</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
         <v>234</v>
@@ -3563,7 +3560,7 @@
         <v>216</v>
       </c>
       <c r="G93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H93" t="s">
         <v>234</v>
@@ -3615,7 +3612,7 @@
         <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H95" t="s">
         <v>234</v>
@@ -3667,7 +3664,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H97" t="s">
         <v>234</v>
@@ -3771,7 +3768,7 @@
         <v>189</v>
       </c>
       <c r="G101" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
         <v>234</v>
